--- a/replacements/application_vnd.openxmlformats-officedocument.spreadsheetml.sheet.xlsx
+++ b/replacements/application_vnd.openxmlformats-officedocument.spreadsheetml.sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Das Dokument wurde ersetzt, weil beim originären Dokument</t>
   </si>
@@ -21,9 +21,6 @@
   <si>
     <t>Das Original wird nicht ausgeliefert.</t>
   </si>
-  <si>
-    <t>Gematik ePA AV-Gate</t>
-  </si>
 </sst>
 </file>
 
@@ -34,10 +31,12 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,7 +274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -292,11 +291,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
